--- a/reeevr/test/excelunit/simple-tests.xlsx
+++ b/reeevr/test/excelunit/simple-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo14776\PycharmProjects\Excel-R-compiler\reeevr\test\excelunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EBFDF2-E824-4034-9994-80079A292E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5719D-4BE8-4A93-BFCA-747E861A3B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/reeevr/test/excelunit/simple-tests.xlsx
+++ b/reeevr/test/excelunit/simple-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo14776\PycharmProjects\Excel-R-compiler\reeevr\test\excelunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5719D-4BE8-4A93-BFCA-747E861A3B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC1523F-6B36-434D-BB79-8BEE33C41AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
+    <workbookView xWindow="6195" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t>Function</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>SQRT</t>
   </si>
@@ -59,62 +56,43 @@
     <t>ROUND</t>
   </si>
   <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input 1 </t>
-  </si>
-  <si>
-    <t>Expected 1</t>
-  </si>
-  <si>
-    <t>Input 2</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Expected 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input 3 </t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Expected 3</t>
-  </si>
-  <si>
-    <t>Input 4</t>
-  </si>
-  <si>
-    <t>Test 4</t>
-  </si>
-  <si>
-    <t>Array Functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Data</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected </t>
-  </si>
-  <si>
-    <t>Expected 4</t>
+    <t>LOG10</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Expected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,13 +115,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF25731-326B-4B1D-BAEF-4810D3B7BDA8}">
-  <dimension ref="B2:N10"/>
+  <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,350 +480,474 @@
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1.2</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <f>SQRT(C3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:M3" si="0">SQRT(D3)</f>
+        <v>1.0954451150103321</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <f>SQRT(H3)</f>
+        <v>31.622776601683793</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1.0954451150103321</v>
+      </c>
+      <c r="Q3">
+        <v>1.8708286933869707</v>
+      </c>
+      <c r="R3">
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>31.622776601683793</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>LN(1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>EXP(C4)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:N4" si="1">EXP(D4)</f>
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>7.3890560989306504</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>20.085536923187668</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="P4">
+        <v>2.7182818284590451</v>
+      </c>
+      <c r="Q4">
+        <v>7.3890560989306504</v>
+      </c>
+      <c r="R4">
+        <v>20.085536923187668</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>-2</v>
+      </c>
+      <c r="G5">
+        <v>-1.2</v>
+      </c>
+      <c r="H5">
+        <v>1.2</v>
+      </c>
+      <c r="I5">
+        <f>ABS(C5)</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:N5" si="2">ABS(D5)</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>1.2</v>
+      </c>
+      <c r="T5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.2</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
+      <c r="E6">
+        <v>1.9</v>
+      </c>
+      <c r="F6">
+        <v>-1.2</v>
+      </c>
+      <c r="G6">
+        <v>-1.5</v>
+      </c>
+      <c r="H6">
+        <v>-1.9</v>
+      </c>
+      <c r="I6">
+        <f>ROUND(C6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:N6" si="3">ROUND(D6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="4">ROUND(E6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6" si="5">ROUND(F6,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="6">ROUND(G6,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6" si="7">ROUND(H6,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>-2</v>
+      </c>
+      <c r="T6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>3.4</v>
+      </c>
+      <c r="H7">
+        <v>5.6</v>
+      </c>
+      <c r="I7">
+        <f>MAX(C7:H7)</f>
+        <v>5.6</v>
+      </c>
+      <c r="J7">
+        <f>MAX(D7:I7)</f>
+        <v>5.6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="J7:M7" si="8">MAX(E7:J7)</f>
+        <v>5.6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>5.6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>5.6</v>
+      </c>
+      <c r="N7">
+        <f>MAX(H7:M7)</f>
+        <v>5.6</v>
+      </c>
+      <c r="O7">
+        <v>5.6</v>
+      </c>
+      <c r="P7">
+        <v>5.6</v>
+      </c>
+      <c r="Q7">
+        <v>5.6</v>
+      </c>
+      <c r="R7">
+        <v>5.6</v>
+      </c>
+      <c r="S7">
+        <v>5.6</v>
+      </c>
+      <c r="T7">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <f>MIN(C7:H8)</f>
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:N8" si="9">MIN(D7:I8)</f>
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <v>-1</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>SQRT(C3)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="G3">
-        <f>SQRT(F3)</f>
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>36</v>
-      </c>
-      <c r="J3">
-        <f>SQRT(I3)</f>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M3">
-        <f>SQRT(L3)</f>
-        <v>1.51657508881031</v>
-      </c>
-      <c r="N3">
-        <v>1.516575089</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>EXP(C4)</f>
-        <v>2.7182818284590451</v>
-      </c>
-      <c r="E4">
-        <v>2.7182818279999998</v>
-      </c>
-      <c r="F4">
-        <v>1.5</v>
-      </c>
-      <c r="G4">
-        <f>EXP(F4)</f>
-        <v>4.4816890703380645</v>
-      </c>
-      <c r="H4">
-        <v>4.4816890699999998</v>
-      </c>
-      <c r="I4">
-        <v>3.23</v>
-      </c>
-      <c r="J4">
-        <f>EXP(I4)</f>
-        <v>25.279656970962893</v>
-      </c>
-      <c r="K4">
-        <v>25.279656970000001</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <f>EXP(L4)</f>
-        <v>0.36787944117144233</v>
-      </c>
-      <c r="N4">
-        <v>0.36787944099999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="I9">
+        <f>LOG10(C9)</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>LOG10(D9)</f>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <f>LOG10(E9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>LOG10(F9)</f>
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>ABS(C5)</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <f>ABS(F5)</f>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>2.5</v>
-      </c>
-      <c r="J5">
-        <f>ABS(I5)</f>
-        <v>2.5</v>
-      </c>
-      <c r="K5">
-        <v>2.5</v>
-      </c>
-      <c r="L5">
-        <v>-187</v>
-      </c>
-      <c r="M5">
-        <f>ABS(L5)</f>
-        <v>187</v>
-      </c>
-      <c r="N5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>ROUND(C6,6)</f>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>3.62</v>
-      </c>
-      <c r="G6">
-        <f>ROUND(F6,6)</f>
-        <v>3.62</v>
-      </c>
-      <c r="H6">
-        <v>3.62</v>
-      </c>
-      <c r="I6">
-        <v>-874.32600000000002</v>
-      </c>
-      <c r="J6">
-        <f>ROUND(I6,2)</f>
-        <v>-874.33</v>
-      </c>
-      <c r="K6">
-        <v>-874.33</v>
-      </c>
-      <c r="L6">
-        <v>1200</v>
-      </c>
-      <c r="M6">
-        <f>ROUND(L6,34)</f>
-        <v>1200</v>
-      </c>
-      <c r="N6">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
-      </c>
-      <c r="F9">
-        <v>-4</v>
-      </c>
-      <c r="G9">
-        <v>-8</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="J9">
-        <v>89</v>
-      </c>
-      <c r="K9">
-        <v>2.56</v>
-      </c>
-      <c r="L9">
-        <v>451</v>
-      </c>
       <c r="M9">
-        <f>MAX(C9:L9)</f>
-        <v>451</v>
+        <f>LOG10(G9)</f>
+        <v>0.47712125471966244</v>
       </c>
       <c r="N9">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-      <c r="F10">
-        <v>-4</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
-        <v>20</v>
-      </c>
-      <c r="J10">
-        <v>89</v>
-      </c>
-      <c r="K10">
-        <v>2.56</v>
-      </c>
-      <c r="L10">
-        <v>451</v>
-      </c>
-      <c r="M10">
-        <f>MIN(C10:L10)</f>
-        <v>-8</v>
-      </c>
-      <c r="N10">
-        <v>-8</v>
+        <f>LOG10(H9)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="T9">
+        <v>0.77815125038364363</v>
       </c>
     </row>
   </sheetData>

--- a/reeevr/test/excelunit/simple-tests.xlsx
+++ b/reeevr/test/excelunit/simple-tests.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo14776\PycharmProjects\Excel-R-compiler\reeevr\test\excelunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC1523F-6B36-434D-BB79-8BEE33C41AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA4E35-BB04-40C4-9A05-5BA80008B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="4290" windowWidth="21600" windowHeight="11295" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -717,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:N6" si="3">ROUND(D6,0)</f>
+        <f t="shared" ref="J6" si="3">ROUND(D6,0)</f>
         <v>2</v>
       </c>
       <c r="K6">
@@ -786,7 +787,7 @@
         <v>5.6</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="J7:M7" si="8">MAX(E7:J7)</f>
+        <f t="shared" ref="K7:M7" si="8">MAX(E7:J7)</f>
         <v>5.6</v>
       </c>
       <c r="L7">
@@ -908,27 +909,27 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <f>LOG10(C9)</f>
+        <f t="shared" ref="I9:N9" si="10">LOG10(C9)</f>
         <v>1</v>
       </c>
       <c r="J9">
-        <f>LOG10(D9)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="K9">
-        <f>LOG10(E9)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f>LOG10(F9)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M9">
-        <f>LOG10(G9)</f>
+        <f t="shared" si="10"/>
         <v>0.47712125471966244</v>
       </c>
       <c r="N9">
-        <f>LOG10(H9)</f>
+        <f t="shared" si="10"/>
         <v>0.77815125038364363</v>
       </c>
       <c r="O9">

--- a/reeevr/test/excelunit/simple-tests.xlsx
+++ b/reeevr/test/excelunit/simple-tests.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mo14776\PycharmProjects\Excel-R-compiler\reeevr\test\excelunit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA4E35-BB04-40C4-9A05-5BA80008B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C28DB0-7BC9-40CA-88EC-40F094FF584E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEC3FC54-0D47-4937-A0CF-B72916A7CC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SQRT</t>
   </si>
@@ -48,12 +47,6 @@
     <t>ABS</t>
   </si>
   <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
     <t>ROUND</t>
   </si>
   <si>
@@ -70,6 +63,42 @@
   </si>
   <si>
     <t>Expected</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>ASIN</t>
+  </si>
+  <si>
+    <t>ACOS</t>
+  </si>
+  <si>
+    <t>ATAN</t>
+  </si>
+  <si>
+    <t>ACOSH</t>
+  </si>
+  <si>
+    <t>SINH</t>
+  </si>
+  <si>
+    <t>COSH</t>
+  </si>
+  <si>
+    <t>TANH</t>
+  </si>
+  <si>
+    <t>ASINH</t>
+  </si>
+  <si>
+    <t>ATANH</t>
   </si>
 </sst>
 </file>
@@ -461,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF25731-326B-4B1D-BAEF-4810D3B7BDA8}">
-  <dimension ref="B2:T9"/>
+  <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +504,7 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" bestFit="1" customWidth="1"/>
@@ -483,16 +512,16 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
@@ -693,7 +722,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1.2</v>
@@ -757,103 +786,109 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:N7" si="8">LOG10(C7)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>1.2</v>
-      </c>
-      <c r="G7">
-        <v>3.4</v>
-      </c>
-      <c r="H7">
-        <v>5.6</v>
-      </c>
-      <c r="I7">
-        <f>MAX(C7:H7)</f>
-        <v>5.6</v>
-      </c>
-      <c r="J7">
-        <f>MAX(D7:I7)</f>
-        <v>5.6</v>
-      </c>
       <c r="K7">
-        <f t="shared" ref="K7:M7" si="8">MAX(E7:J7)</f>
-        <v>5.6</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="8"/>
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
-        <v>5.6</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="N7">
-        <f>MAX(H7:M7)</f>
-        <v>5.6</v>
+        <f t="shared" si="8"/>
+        <v>0.77815125038364363</v>
       </c>
       <c r="O7">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>5.6</v>
+        <v>0.47712125471966244</v>
       </c>
       <c r="T7">
-        <v>5.6</v>
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <f>3/2*PI()</f>
+        <v>4.7123889803846897</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <f>7/4*PI()</f>
+        <v>5.497787143782138</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
       </c>
       <c r="I8">
-        <f>MIN(C7:H8)</f>
-        <v>-1</v>
+        <f>SIN(C8)</f>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:N8" si="9">MIN(D7:I8)</f>
-        <v>-1</v>
+        <f t="shared" ref="J8:N8" si="9">SIN(D8)</f>
+        <v>1</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="L8">
         <f t="shared" si="9"/>
@@ -861,94 +896,774 @@
       </c>
       <c r="M8">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>-0.70710678118654768</v>
       </c>
       <c r="N8">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>-2.45029690981724E-16</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="R8">
         <v>-1</v>
       </c>
       <c r="S8">
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="T8">
+        <v>-2.45029690981724E-16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="10">PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="11">PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="12">3/2*PI()</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="13">7/4*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9" si="14">2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="I9">
+        <f>COS(C9)</f>
         <v>-1</v>
       </c>
-      <c r="T8">
+      <c r="J9">
+        <f t="shared" ref="J9:N9" si="15">COS(D9)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="15"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="15"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="15"/>
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9:N9" si="10">LOG10(C9)</f>
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="10"/>
+      <c r="P9">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="Q9">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="R9">
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="S9">
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D10">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="E10">
+        <f>PI()/8</f>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="F10">
+        <f>5/4*PI()</f>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="G10">
+        <f>7/4*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="H10">
+        <f>33/8*PI()</f>
+        <v>12.959069696057897</v>
+      </c>
+      <c r="I10">
+        <f>TAN(C10)</f>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:M10" si="16">TAN(D10)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="16"/>
+        <v>0.41421356237309503</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="16"/>
+        <v>-1.0000000000000004</v>
+      </c>
+      <c r="N10">
+        <f>TAN(H10)</f>
+        <v>0.41421356237309498</v>
+      </c>
+      <c r="O10">
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="P10">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Q10">
+        <v>0.41421356237309503</v>
+      </c>
+      <c r="R10">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="S10">
+        <v>-1.0000000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.41421356237309498</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-0.70710678118654768</v>
+      </c>
+      <c r="H11">
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="I11">
+        <f>ASIN(C11)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:N11" si="17">ASIN(D11)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="17"/>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="17"/>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="17"/>
+        <v>-0.7853981633974485</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="17"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="O11">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="P11">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="Q11">
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="R11">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="S11">
+        <v>-0.7853981633974485</v>
+      </c>
+      <c r="T11">
+        <v>-2.45029690981724E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="E12">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="F12">
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="G12">
+        <v>0.70710678118654735</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>ACOS(C12)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:N12" si="18">ACOS(D12)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="18"/>
+        <v>0.78539816339744817</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="18"/>
+        <v>1.5707963267948968</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="18"/>
+        <v>0.78539816339744861</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="10"/>
-        <v>0.47712125471966244</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="10"/>
-        <v>0.77815125038364363</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
+      <c r="O12">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="P12">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="Q12">
+        <v>0.78539816339744817</v>
+      </c>
+      <c r="R12">
+        <v>1.5707963267948968</v>
+      </c>
+      <c r="S12">
+        <v>0.78539816339744861</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>0.47712125471966244</v>
-      </c>
-      <c r="T9">
-        <v>0.77815125038364363</v>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="D13">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E13">
+        <v>0.41421356237309503</v>
+      </c>
+      <c r="F13">
+        <v>0.99999999999999967</v>
+      </c>
+      <c r="G13">
+        <v>-1.0000000000000004</v>
+      </c>
+      <c r="H13">
+        <v>0.41421356237309498</v>
+      </c>
+      <c r="I13">
+        <f>ATAN(C13)</f>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13:N13" si="19">ATAN(D13)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="19"/>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="19"/>
+        <v>0.78539816339744817</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="19"/>
+        <v>-0.7853981633974485</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="19"/>
+        <v>0.39269908169872408</v>
+      </c>
+      <c r="O13">
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="P13">
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="Q13">
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="R13">
+        <v>0.78539816339744817</v>
+      </c>
+      <c r="S13">
+        <v>-0.7853981633974485</v>
+      </c>
+      <c r="T13">
+        <v>0.39269908169872408</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D14">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E14">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="F14">
+        <f>3/2*PI()</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="G14">
+        <f>7/4*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="H14">
+        <f>2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="I14">
+        <f>SINH(C14)</f>
+        <v>11.548739357257748</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:N14" si="20">SINH(D14)</f>
+        <v>2.3012989023072947</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="20"/>
+        <v>0.86867096148600964</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="20"/>
+        <v>55.654397599417543</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="20"/>
+        <v>122.07348351469281</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="20"/>
+        <v>267.74489404101644</v>
+      </c>
+      <c r="O14">
+        <v>11.548739357257748</v>
+      </c>
+      <c r="P14">
+        <v>2.3012989023072947</v>
+      </c>
+      <c r="Q14">
+        <v>0.86867096148600964</v>
+      </c>
+      <c r="R14">
+        <v>55.654397599417543</v>
+      </c>
+      <c r="S14">
+        <v>122.07348351469281</v>
+      </c>
+      <c r="T14">
+        <v>267.74489404101644</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="21">PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="22">PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="23">3/2*PI()</f>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="24">7/4*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="25">2*PI()</f>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="I15">
+        <f>COSH(C15)</f>
+        <v>11.591953275521519</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:N15" si="26">COSH(D15)</f>
+        <v>2.5091784786580567</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="26"/>
+        <v>1.3246090892520057</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="26"/>
+        <v>55.663380890438667</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="26"/>
+        <v>122.07757933958217</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="26"/>
+        <v>267.74676148374817</v>
+      </c>
+      <c r="O15">
+        <v>11.591953275521519</v>
+      </c>
+      <c r="P15">
+        <v>2.5091784786580567</v>
+      </c>
+      <c r="Q15">
+        <v>1.3246090892520057</v>
+      </c>
+      <c r="R15">
+        <v>55.663380890438667</v>
+      </c>
+      <c r="S15">
+        <v>122.07757933958217</v>
+      </c>
+      <c r="T15">
+        <v>267.74676148374817</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D16">
+        <f>PI()/4</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="E16">
+        <f>PI()/8</f>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="F16">
+        <f>5/4*PI()</f>
+        <v>3.9269908169872414</v>
+      </c>
+      <c r="G16">
+        <f>7/4*PI()</f>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="H16">
+        <f>33/8*PI()</f>
+        <v>12.959069696057897</v>
+      </c>
+      <c r="I16">
+        <f>TANH(C16)</f>
+        <v>0.99627207622075009</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:N16" si="27">TANH(D16)</f>
+        <v>0.65579420263267241</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="27"/>
+        <v>0.37368474790121536</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="27"/>
+        <v>0.99922389487864105</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="27"/>
+        <v>0.9999664489997957</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="27"/>
+        <v>0.99999999998891009</v>
+      </c>
+      <c r="O16">
+        <v>0.99627207622075009</v>
+      </c>
+      <c r="P16">
+        <v>0.65579420263267241</v>
+      </c>
+      <c r="Q16">
+        <v>0.37368474790121536</v>
+      </c>
+      <c r="R16">
+        <v>0.99922389487864105</v>
+      </c>
+      <c r="S16">
+        <v>0.9999664489997957</v>
+      </c>
+      <c r="T16">
+        <v>0.99999999998891009</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>11.548739357257748</v>
+      </c>
+      <c r="D17">
+        <v>2.3012989023072947</v>
+      </c>
+      <c r="E17">
+        <v>0.86867096148600964</v>
+      </c>
+      <c r="F17">
+        <v>55.654397599417543</v>
+      </c>
+      <c r="G17">
+        <v>122.07348351469281</v>
+      </c>
+      <c r="H17">
+        <v>267.74489404101644</v>
+      </c>
+      <c r="I17">
+        <f>ASINH(C17)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:N17" si="28">ASINH(D17)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="28"/>
+        <v>0.78539816339744839</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="28"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="28"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="28"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="O17">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="P17">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="Q17">
+        <v>0.78539816339744839</v>
+      </c>
+      <c r="R17">
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="S17">
+        <v>5.497787143782138</v>
+      </c>
+      <c r="T17">
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>11.591953275521519</v>
+      </c>
+      <c r="D18">
+        <v>2.5091784786580567</v>
+      </c>
+      <c r="E18">
+        <v>1.3246090892520057</v>
+      </c>
+      <c r="F18">
+        <v>55.663380890438667</v>
+      </c>
+      <c r="G18">
+        <v>122.07757933958217</v>
+      </c>
+      <c r="H18">
+        <v>267.74676148374817</v>
+      </c>
+      <c r="I18">
+        <f>ACOSH(C18)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:N18" si="29">ACOSH(D18)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="29"/>
+        <v>0.78539816339744817</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="29"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="29"/>
+        <v>5.497787143782138</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="29"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="O18">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="P18">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="Q18">
+        <v>0.78539816339744817</v>
+      </c>
+      <c r="R18">
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="S18">
+        <v>5.497787143782138</v>
+      </c>
+      <c r="T18">
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0.99627207622075009</v>
+      </c>
+      <c r="D19">
+        <v>0.65579420263267241</v>
+      </c>
+      <c r="E19">
+        <v>0.37368474790121536</v>
+      </c>
+      <c r="F19">
+        <v>0.99922389487864105</v>
+      </c>
+      <c r="G19">
+        <v>0.9999664489997957</v>
+      </c>
+      <c r="H19">
+        <v>0.99999999998891009</v>
+      </c>
+      <c r="I19">
+        <f>ATANH(C19)</f>
+        <v>3.1415926535898131</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:N19" si="30">ATANH(D19)</f>
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="30"/>
+        <v>0.39269908169872408</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="30"/>
+        <v>3.926990816987169</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="30"/>
+        <v>5.4977871437806574</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="30"/>
+        <v>12.959066450883766</v>
+      </c>
+      <c r="O19">
+        <v>3.1415926535898131</v>
+      </c>
+      <c r="P19">
+        <v>0.78539816339744828</v>
+      </c>
+      <c r="Q19">
+        <v>0.39269908169872408</v>
+      </c>
+      <c r="R19">
+        <v>3.926990816987169</v>
+      </c>
+      <c r="S19">
+        <v>5.4977871437806574</v>
+      </c>
+      <c r="T19">
+        <v>12.959066450883766</v>
       </c>
     </row>
   </sheetData>
